--- a/DataLoads/Output/closedtransactionstmp.xlsx
+++ b/DataLoads/Output/closedtransactionstmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>amount</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -507,14 +507,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>1950</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 3TRBL2 Meadow View Homes LLC</t>
+          <t>OnePlus Realty G SIGONFILE 080924 VY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -575,14 +575,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B3" t="n">
         <v>-730.2</v>
       </c>
-      <c r="B3" t="n">
-        <v>39</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028352704-0055 104 Meadow</t>
+          <t>PENNYMAC CASH Aug 24 8028352704-0056 104 Meadow</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -643,14 +643,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="n">
         <v>-75</v>
       </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ55Y6Q 104MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VMZ9B 104MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,14 +711,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
         <v>-748.9299999999999</v>
       </c>
-      <c r="B5" t="n">
-        <v>15</v>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002632 PARUL GUPTA</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002632 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -779,14 +779,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
         <v>-75</v>
       </c>
-      <c r="B6" t="n">
-        <v>16</v>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ58NCB 108MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VCNRL 108MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -847,14 +847,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1925</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>-726.97</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 6TRBL2 Pagoda Homes LLC (108</t>
+          <t>FREEDOM MTG PYMTS 080124 0129201927 NEERAJ GUPTA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>108Pagoda</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>108Pagoda</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -909,20 +909,20 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-726.97</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>2025</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FREEDOM MTG PYMTS 070124 0129201927 NEERAJ GUPTA</t>
+          <t>OnePlus Realty G SIGONFILE 080924 XY88N2 Pagoda Homes LLC (108</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -932,44 +932,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>W9-ONEPLUS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Property</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>108Pagoda</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>clean</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>A01-Income</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>108Pagoda</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -977,20 +977,20 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B9" t="n">
         <v>-75</v>
       </c>
-      <c r="B9" t="n">
-        <v>51</v>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59FR9 TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VHFSF TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1051,14 +1051,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2295</v>
+        <v>62</v>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>-711.48</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 073124 PZKLM2 Neeraj Gupta (Brewer)</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002633 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>1117Brewer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1113,20 +1113,20 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1823.14</v>
+        <v>63</v>
       </c>
       <c r="B11" t="n">
-        <v>67</v>
+        <v>-75</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 0TRBL2 Neeraj Gupta (Brewer)</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TWZK5 BREWER TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1136,17 +1136,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>1117Brewer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1181,20 +1181,20 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-711.48</v>
+        <v>93</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>-675.63</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002633 PARUL GUPTA</t>
+          <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:080124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000019427854 EED:240801   IND ID:                             IND NAME:PARUL GUPTA TRN: 2149427854TC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1255,14 +1255,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-75</v>
+        <v>92</v>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>1644.72</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59Q3N BREWER TO TRULO PROPERTY MANAGEMENT</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:080924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082370597 EED:240809   IND ID:ZY88N2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2222370597TC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1317,20 +1317,20 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1860</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>-456.02</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315744 EED:240710   IND ID:8TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315744TC</t>
+          <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683624456 GUPTA PARUL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1340,27 +1340,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1385,20 +1385,20 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-675.63</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>-150</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:070124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000010669125 EED:240701   IND ID:                             IND NAME:PARUL GUPTA TRN: 1830669125TC</t>
+          <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0P5LXJ2X BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1408,12 +1408,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A01-Income</t>
+          <t>F01-BankTransfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1453,20 +1453,20 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>Checking</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1600</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>1900</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 4TRBL2 Meadow View Homes LLC</t>
+          <t>OnePlus Realty G SIGONFILE 080924 WY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1527,14 +1527,14 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-150</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>-75</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V3PQ8 116MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1589,20 +1589,20 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-456.02</v>
+        <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>0.02</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683624456 GUPTA PARUL</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1612,27 +1612,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1657,20 +1657,20 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-75</v>
+        <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6F5RZ 116MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0P5LXJ2X BUSINESS CHECKING 116 MV CHK TO SAV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1680,27 +1680,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>A01-Income</t>
+          <t>F01-BankTransfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1725,20 +1725,20 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.03</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>1883.52</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>OnePlus Realty G SIGONFILE 080924 YY88N2 Pagoda Homes LLC (Rose</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1748,27 +1748,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1793,20 +1793,20 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>-395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS CHECKING 116 MV CHK TO SAV</t>
+          <t>FOREMOST EPM PYMT 240820 3810091873545 VIVEK JADHAV</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1816,27 +1816,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Exp-Insurance</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1861,20 +1861,20 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Insurance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-414</v>
+        <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>-963.16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FOREMOST EPM PYMT 240726 3810091873545 VIVEK JADHAV</t>
+          <t>PENNYMAC CASH Aug 24 8028350915-0056 1316 Rosemon</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Exp-Insurance</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1929,20 +1929,20 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3729</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>33</v>
+        <v>-150</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 7TRBL2 Pagoda Homes LLC (Rose</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TXGGY ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1952,17 +1952,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1997,20 +1997,20 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-963.16</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>-563.38</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028350915-0055 1316 Rosemon</t>
+          <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683856942 GUPTA PARUL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2071,14 +2071,14 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-150</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>-75</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ54Y3C ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VKXGK NEWTON TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2139,14 +2139,14 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1748.17</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>-947</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 073124 RZKLM2 Pagoda Homes (Newton)</t>
+          <t>BILL PAY Eddy Account 9189321 ON-LINE xxxx xxxxxxxxxx xroup ON 08-27</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2156,27 +2156,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2201,20 +2201,20 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>1905Morning</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1995</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>947</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 5TRBL2 Pagoda Homes (Newton)</t>
+          <t>ONLINE TRANSFER FROM GUPTA P REF #IB0PC4CFZC PLATINUM SAVINGS EDDY ESTATES LLC MORTGAGE PAYMENT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2224,27 +2224,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2269,20 +2269,20 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-563.38</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>0.01</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683856942 GUPTA PARUL</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2292,27 +2292,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>2208Chase</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>2208Chase</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2337,20 +2337,20 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-75</v>
+        <v>53</v>
       </c>
       <c r="B29" t="n">
-        <v>29</v>
+        <v>0.1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6T9P2 NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2360,27 +2360,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2405,20 +2405,20 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01</v>
+        <v>55</v>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>-947.72</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>JPMORGAN CHASE CHASE ACH 080124 4027425045 MEADOW VIEW HOMES LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2428,27 +2428,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2208Chase</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2208Chase</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2473,20 +2473,20 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.08</v>
+        <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>2950</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>OnePlus Realty G SIGONFILE 080924 TY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2496,17 +2496,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2541,20 +2541,20 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2700</v>
+        <v>77</v>
       </c>
       <c r="B32" t="n">
-        <v>54</v>
+        <v>-178.76</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 1TRBL2 Meadow View Homes LLC</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240812 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012973937 EED:240813   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2262973937TC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2564,27 +2564,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2609,20 +2609,20 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>CityServices</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-947.72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>-1118.25</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE CHASE ACH 070124 4027425045 MEADOW VIEW HOMES LLC</t>
+          <t>Online Payment 21567571562 To CHASE HOME MORTGAGE 08/29</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2683,14 +2683,14 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1118.25</v>
+        <v>78</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>-45.66</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Online Payment 21229559529 To CHASE HOME MORTGAGE 07/31</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459473 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459473TC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2745,20 +2745,20 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>CityServices</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-500</v>
+        <v>79</v>
       </c>
       <c r="B35" t="n">
-        <v>81</v>
+        <v>-48.89</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHECK 2032  </t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459467 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459467TC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Security-Refund</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>B01-SecurityDeposit</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2808,25 +2808,25 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>CityServices</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-46.3</v>
+        <v>80</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>-65.56</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411692 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411692TC</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459469 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459469TC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2887,14 +2887,14 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-49.54</v>
+        <v>81</v>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>-82.47</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411685 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411685TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017379970 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197379970TC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2949,20 +2949,20 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-70.08</v>
+        <v>82</v>
       </c>
       <c r="B38" t="n">
-        <v>85</v>
+        <v>-119.6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411691 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411691TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017363565 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197363565TC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3017,20 +3017,20 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-134.46</v>
+        <v>83</v>
       </c>
       <c r="B39" t="n">
-        <v>86</v>
+        <v>-188.8</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411687 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411687TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017363592 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197363592TC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3085,20 +3085,20 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1504.75</v>
+        <v>84</v>
       </c>
       <c r="B40" t="n">
-        <v>87</v>
+        <v>-169.1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315743 EED:240710   IND ID:2TRBL2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 1928315743TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240802 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016012185 EED:240805   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2186012185TC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3108,17 +3108,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3153,20 +3153,20 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-51.49</v>
+        <v>76</v>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>2239.53</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929691 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929691TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820474 EED:240815   IND ID:4DRRN2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 2285820474TC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3176,44 +3176,44 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>W9-ONEPLUS</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Property</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>4909Jamesway</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>clean</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>A01-Income</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>4909Jamesway</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2024-07-03</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-95.72</v>
+        <v>87</v>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>-1383.06</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926310 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926310TC</t>
+          <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:080124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000029832472 EED:240801   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 2149832472TC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3244,12 +3244,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3289,20 +3289,20 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-143.42</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>4400</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926327 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926327TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820470 EED:240815   IND ID:WCRRN2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2285820470TC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3312,27 +3312,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3357,20 +3357,20 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-148.43</v>
+        <v>95</v>
       </c>
       <c r="B44" t="n">
-        <v>91</v>
+        <v>2850.41</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929696 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929696TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820469 EED:240815   IND ID:VCRRN2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 2285820469TC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3380,27 +3380,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3425,20 +3425,20 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1699.24</v>
+        <v>96</v>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>-50</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:VRBO                   ORIG ID:9872667522 DESC DATE:240719 CO ENTRY DESCR:PAYMENT   SEC:PPD    TRACE#:031101111714572 EED:240722   IND ID:                             IND NAME:Neeraj Gupta TRN: 2041714572TC</t>
+          <t xml:space="preserve">CHECK 1071  </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3448,27 +3448,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-ProfessionalServices</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>VRBORent</t>
+          <t>CityofFortworthViolation</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3493,20 +3493,20 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>6401Basswood</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6414.53</v>
+        <v>97</v>
       </c>
       <c r="B46" t="n">
-        <v>93</v>
+        <v>-1383.06</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:073124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926084765326 EED:240731   IND ID:QZKLM2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2134765326TC</t>
+          <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240731 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083659872 EED:240801   IND ID:                             IND NAME:JADHAV VIVEK TRN: 2143659872TC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3516,27 +3516,27 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3561,20 +3561,20 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1383.06</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>94</v>
+        <v>-733.95</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:070124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000020928596 EED:240701   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 1830928596TC</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002634 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3635,14 +3635,14 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2655</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>102</v>
+        <v>-75</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315742 EED:240710   IND ID:ZSRBL2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 1928315742TC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TT3W6 PARKS TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3652,27 +3652,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3697,20 +3697,20 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1383.06</v>
+        <v>89</v>
       </c>
       <c r="B49" t="n">
-        <v>103</v>
+        <v>1814.38</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240630 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083248476 EED:240701   IND ID:                             IND NAME:JADHAV VIVEK TRN: 1833248476TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:080924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082370598 EED:240809   IND ID:0Z88N2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2222370598TC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3720,27 +3720,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3765,20 +3765,20 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-733.95</v>
+        <v>90</v>
       </c>
       <c r="B50" t="n">
-        <v>45</v>
+        <v>-843.79</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002634 PARUL GUPTA</t>
+          <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Aug 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000021437718 EED:240801   IND ID:8028351082-0056              IND NAME:8604 Wagon TRN: 2141437718TC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3839,14 +3839,14 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-75</v>
+        <v>67</v>
       </c>
       <c r="B51" t="n">
-        <v>46</v>
+        <v>-694.01</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5P3GX PARKS TO TRULO PROPERTY MANAGEMENT</t>
+          <t>PENNYMAC CASH Aug 24 8028351602-0055 vivek jadhav</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3856,27 +3856,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3901,20 +3901,20 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-248</v>
+        <v>66</v>
       </c>
       <c r="B52" t="n">
-        <v>79</v>
+        <v>1900</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Online Transfer to CHK ...5031 transaction#: 21572783954 07/31</t>
+          <t>OnePlus Realty G SIGONFILE 080924 1Z88N2 Pagoda Homes (Wintergr</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3924,27 +3924,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3954,35 +3954,35 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Common-&gt;Canoga</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2100</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>96</v>
+        <v>-75</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315745 EED:240710   IND ID:9TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315745TC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V8M6F WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3992,27 +3992,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4037,20 +4037,20 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-843.79</v>
+        <v>69</v>
       </c>
       <c r="B54" t="n">
-        <v>97</v>
+        <v>-40.35</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Jul 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000020542007 EED:240701   IND ID:8028351082-0055              IND NAME:8604 Wagon TRN: 1830542007TC</t>
+          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240828 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000025701084 EED:240829   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 2425701084TC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Repair</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4105,20 +4105,20 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>Autopay</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1900</v>
+        <v>5</v>
       </c>
       <c r="B55" t="n">
-        <v>72</v>
+        <v>16702.38</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 BTRBL2 Pagoda Homes (Wintergr</t>
+          <t>OnePlus Realty G SIGONFILE 083024 5CCJP2 Midway Inn LLC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4179,14 +4179,14 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-694.01</v>
+        <v>4</v>
       </c>
       <c r="B56" t="n">
-        <v>73</v>
+        <v>920</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028351602-0054 vivek jadhav</t>
+          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 08/30 Ref#20240830021000021P1BRJPC03760121683</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4196,27 +4196,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4241,20 +4241,20 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-75</v>
+        <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>74</v>
+        <v>-83.29000000000001</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ68C2D WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING PAYMENT AUTHORIZED ON 08/12 Spectrum 855-707-7328 MO S464225547250464 CARD 4162</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4264,27 +4264,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4309,20 +4309,20 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="B58" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Online Transfer from CHK ...6571 transaction#: 21572783954</t>
+          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 08/14 Ref#20240814021000021P1BRJPC00500037215</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4332,27 +4332,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4362,35 +4362,35 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Common-&gt;Canoga</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>76</v>
+        <v>-9368.889999999999</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Zelle payment from TRULO PROPERTY MANAGEMENT LLC 21572866504</t>
+          <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4400,27 +4400,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>TRULORefund</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4445,20 +4445,20 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Mortgage</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-358.39</v>
+        <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>77</v>
+        <v>-1500</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240728 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000024987396 EED:240729   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 2114987396TC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VK6BX TRULO MONTHLY PM FEE MIDWAY INN</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4468,27 +4468,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4513,20 +4513,20 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Autopay</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-96.29000000000001</v>
+        <v>56</v>
       </c>
       <c r="B61" t="n">
-        <v>78</v>
+        <v>0.24</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240628 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000020238031 EED:240701   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 1830238031TC</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4536,27 +4536,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>PagodaSecurity</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>PagodaSecurity</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4581,20 +4581,20 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Autopay</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-204.42</v>
+        <v>58</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>121.69</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/29 DNH*GODADDY#321752 480-5058855 AZ S304211626202408 CARD 4162</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4604,27 +4604,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4649,20 +4649,20 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17028.44</v>
+        <v>59</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>-947</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/30 Ref#20240730021000021P1BRJPC00520076928</t>
+          <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0PC4CFZC BUSINESS CHECKING EDDY ESTATES LLC MORTGAGE PAYMENT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4672,27 +4672,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4717,1163 +4717,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>-800</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CHECK # 1011</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Security-Refund</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>B01-SecurityDeposit</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>ChristinaFain</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>-136.07</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>WF Bus Credit AUTO PAY 240721 90469914333885 GUPTA,NEERAJ</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Exp-Repair</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Autopay</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>800</v>
-      </c>
-      <c r="B66" t="n">
-        <v>6</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/21 Ref#20240721021000021P1BRJPC00510064841</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Rev-Rent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Property</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>-22.17</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/14 DNH*GODADDY#318938 480-5058855 AZ S584196656484877 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2024-07-15</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>-77.28</v>
-      </c>
-      <c r="B68" t="n">
-        <v>8</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/12 Spectrum 855-707-7328 MO S584194554099969 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2024-07-15</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>-956.2</v>
-      </c>
-      <c r="B69" t="n">
-        <v>9</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 240710 5743289 MIDWAY INN *LLC</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2024-07-11</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>CityServices</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>-9212.299999999999</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Exp-Mortgage</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2024-07-08</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Mortgage</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>-11.63</v>
-      </c>
-      <c r="B71" t="n">
-        <v>11</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PURCHASE AUTHORIZED ON 07/06 Mobimatter Abu Dhabi ARE S464188635540782 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Exp-Travel</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2024-07-08</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>VivekPersonal</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5FSZ3 TRULO MONTHLY PM FEE MIDWAY INN</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Exp-Mgmt</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>PropertyManagement</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="B73" t="n">
-        <v>56</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>INTEREST PAYMENT</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Rev-Interest</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>BankInterest</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PagodaSecurity</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>PagodaSecurity</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>158.77</v>
-      </c>
-      <c r="B74" t="n">
-        <v>57</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>INTEREST PAYMENT</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Rev-Interest</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>BankInterest</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>-450</v>
-      </c>
-      <c r="B75" t="n">
-        <v>58</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ZELLE TO PROPERTY MANAGEMENT TRULO ON 07/12 REF #RP0SF2YHM4 ATTORNEY FEE WIRE THRU CHASE FOR CHAKRI</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>-40</v>
-      </c>
-      <c r="B76" t="n">
-        <v>59</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NTSRLJC EVERYDAY CHECKING CHAKRI WIRE XFER FEE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>450</v>
-      </c>
-      <c r="B77" t="n">
-        <v>60</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQSGR EVERYDAY CHECKING CHAKRI PAID ATTORNEY FEE</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B78" t="n">
-        <v>61</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQG3V EVERYDAY CHECKING CHAKRI INT JULY</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>-135000</v>
-      </c>
-      <c r="B79" t="n">
-        <v>62</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT79WFZ EVERYDAY CHECKING CHAKRI AND SRAVYA</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2024-07-10</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="B80" t="n">
-        <v>63</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT74JWP EVERYDAY CHECKING CHAKRADER AND SRAVYA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>2024-07-10</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
     </row>
